--- a/assets/chip_layout.xlsx
+++ b/assets/chip_layout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\AiQLayout\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{918FF095-E2EA-4728-A49D-E1176A2723B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141DC632-6055-47B6-A6FE-BF3772A8FAB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -79,57 +79,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="15">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -207,6 +157,36 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -529,7 +509,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -782,7 +762,7 @@
         <v>15</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1001,28 +981,18 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C3:J10 K2:K10 L1:L10 C1:K1 A1:A12 C11:L12">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
+  <conditionalFormatting sqref="A1:L12">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5">
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:J2">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B12">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2066,22 +2036,22 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:B17 K15:K16 E15:E17 Q15:Q17 H15:H18 N15:N18 R15:R18 C17:D17 F17:G17 O17:P17 I17:M18 A18:G18 O18:Q18">
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:R18">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:R14">
-    <cfRule type="cellIs" dxfId="13" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3021,40 +2991,40 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:B1048576">
-    <cfRule type="cellIs" dxfId="12" priority="71" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="71" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Q17">
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C16">
-    <cfRule type="cellIs" dxfId="10" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="52" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="53" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="53" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:Q17">
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2 E4 E6 E8 E10 E12 E14 E16">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2 E4:E16">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G16 I4:I16 K4:K16 M4:M16 O4:O16">
-    <cfRule type="cellIs" dxfId="5" priority="54" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="54" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/assets/chip_layout.xlsx
+++ b/assets/chip_layout.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\AiQLayout\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141DC632-6055-47B6-A6FE-BF3772A8FAB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D8537DA-AAF9-40D8-99DB-DC59298AD958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="COMPACT_1" sheetId="1" r:id="rId1"/>
-    <sheet name="COMPACT_2" sheetId="2" r:id="rId2"/>
-    <sheet name="LINER_1" sheetId="3" r:id="rId3"/>
+    <sheet name="GRID_1" sheetId="4" r:id="rId1"/>
+    <sheet name="COMPACT_1" sheetId="1" r:id="rId2"/>
+    <sheet name="COMPACT_2" sheetId="2" r:id="rId3"/>
+    <sheet name="LINER_1" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -505,10 +506,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F648A6-02A9-4F19-BC33-D5CE1EC873BD}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -1001,7 +1016,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE08AF12-07E3-4241-9ED0-7F2A8EA4EE34}">
   <dimension ref="A1:R18"/>
   <sheetViews>
@@ -2060,7 +2075,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4918305A-90BF-4EC1-98FC-29BEE4E86906}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
